--- a/draft/spells.xlsx
+++ b/draft/spells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Projects\tmp\nostr-hero\draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\nostr-hero\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE0ED32-4C97-4E33-AECE-393B3AE1FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C73A6B8-CF65-41C1-87E6-3BD8E97F238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D80228DE-D338-483E-AD39-E9B22546F564}"/>
+    <workbookView xWindow="-26535" yWindow="1965" windowWidth="21600" windowHeight="11295" xr2:uid="{D80228DE-D338-483E-AD39-E9B22546F564}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="461">
   <si>
     <t>Spell </t>
   </si>
@@ -230,9 +230,6 @@
     <t>Arms of Hadar</t>
   </si>
   <si>
-    <t>Self (10-ft radius)</t>
-  </si>
-  <si>
     <t>Bane</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Burning Hands</t>
   </si>
   <si>
-    <t>Self (15-ft cone)</t>
-  </si>
-  <si>
     <t>Charm Person</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Thunderwave</t>
   </si>
   <si>
-    <t>Self (15-ft cube)</t>
-  </si>
-  <si>
     <t>Unseen Servant</t>
   </si>
   <si>
@@ -464,9 +455,6 @@
     <t>Cordon of Arrows</t>
   </si>
   <si>
-    <t>5 ft</t>
-  </si>
-  <si>
     <t>Crown of Madness</t>
   </si>
   <si>
@@ -509,9 +497,6 @@
     <t>Gust of Wind</t>
   </si>
   <si>
-    <t>Self (60-ft line)</t>
-  </si>
-  <si>
     <t>Heat Metal</t>
   </si>
   <si>
@@ -617,9 +602,6 @@
     <t>Aura of Vitality</t>
   </si>
   <si>
-    <t>Self (30-ft radius)</t>
-  </si>
-  <si>
     <t>Beacon of Hope</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
     <t>Conjure Barrage</t>
   </si>
   <si>
-    <t>Self (60-ft cone)</t>
-  </si>
-  <si>
     <t>Counterspell</t>
   </si>
   <si>
@@ -671,9 +650,6 @@
     <t>Fear</t>
   </si>
   <si>
-    <t>Self (30-ft cone)</t>
-  </si>
-  <si>
     <t>Feign Death</t>
   </si>
   <si>
@@ -710,9 +686,6 @@
     <t>Lightning Bolt</t>
   </si>
   <si>
-    <t>Self (100-ft line)</t>
-  </si>
-  <si>
     <t>Magic Circle</t>
   </si>
   <si>
@@ -749,9 +722,6 @@
     <t>Sending</t>
   </si>
   <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
     <t>Sleet Storm</t>
   </si>
   <si>
@@ -767,9 +737,6 @@
     <t>Spirit Guardians</t>
   </si>
   <si>
-    <t>Self (15-ft radius)</t>
-  </si>
-  <si>
     <t>Stinking Cloud</t>
   </si>
   <si>
@@ -827,9 +794,6 @@
     <t>Dimension Door</t>
   </si>
   <si>
-    <t>500 ft</t>
-  </si>
-  <si>
     <t>Divination</t>
   </si>
   <si>
@@ -1151,9 +1115,6 @@
     <t>Forcecage</t>
   </si>
   <si>
-    <t>100 ft</t>
-  </si>
-  <si>
     <t>Mirage Arcane</t>
   </si>
   <si>
@@ -1173,9 +1134,6 @@
   </si>
   <si>
     <t>Project Image</t>
-  </si>
-  <si>
-    <t>500 miles</t>
   </si>
   <si>
     <t>Regenerate</t>
@@ -1517,11 +1475,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,7 +1523,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96FECE0D-0DA7-4FDC-BF28-ED11826FE3AD}" name="Table1" displayName="Table1" ref="A1:I362" totalsRowShown="0">
-  <autoFilter ref="A1:I362" xr:uid="{96FECE0D-0DA7-4FDC-BF28-ED11826FE3AD}"/>
+  <autoFilter ref="A1:I362" xr:uid="{96FECE0D-0DA7-4FDC-BF28-ED11826FE3AD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1 action"/>
+        <filter val="1 bonus action"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF150DC7-1283-4F84-AA1C-6F07060AF2A8}" name="Spell "/>
     <tableColumn id="2" xr3:uid="{91C4CD96-9034-4B77-AF77-29A66838F52F}" name="Lvl "/>
@@ -1903,7 +1867,7 @@
   <dimension ref="A1:M377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B149" sqref="A149:XFD149"/>
+      <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,6 +1875,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="39.85546875" customWidth="1"/>
   </cols>
@@ -1941,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1957,14 +1922,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1986,8 +1951,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>424</v>
+      <c r="I3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2003,14 +1968,14 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,8 +1991,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -2035,8 +2000,8 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>459</v>
+      <c r="I5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,14 +2017,14 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,14 +2040,14 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>427</v>
+      <c r="I7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,14 +2063,14 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2130,8 +2095,8 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>424</v>
+      <c r="I9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,8 +2112,8 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2157,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2173,14 +2138,14 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>461</v>
+      <c r="I11" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2196,17 +2161,17 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2225,8 +2190,8 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>463</v>
+      <c r="I13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2242,14 +2207,14 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2265,14 +2230,14 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>424</v>
+      <c r="I15" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2288,14 +2253,14 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2311,14 +2276,14 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>43</v>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>462</v>
+      <c r="I17" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2341,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,14 +2322,14 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>423</v>
+      <c r="I19" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,8 +2345,8 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2390,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2406,14 +2371,14 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>429</v>
+      <c r="I21" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,14 +2394,14 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2452,14 +2417,14 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>33</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>460</v>
+      <c r="I23" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,14 +2440,14 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>33</v>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,14 +2463,14 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>25</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>429</v>
+      <c r="I25" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2521,14 +2486,14 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>25</v>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,8 +2509,8 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
-        <v>25</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>57</v>
@@ -2553,8 +2518,8 @@
       <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>424</v>
+      <c r="I27" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2570,17 +2535,17 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
+      <c r="E28">
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2602,8 +2567,8 @@
       <c r="H29" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>466</v>
+      <c r="I29" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,14 +2584,14 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>25</v>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2648,8 +2613,8 @@
       <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>427</v>
+      <c r="I31" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2665,19 +2630,19 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="E32" t="s">
-        <v>64</v>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2688,8 +2653,8 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
-        <v>25</v>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
@@ -2697,13 +2662,13 @@
       <c r="G33" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>432</v>
+      <c r="I33" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2714,8 +2679,8 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
-        <v>25</v>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2724,12 +2689,12 @@
         <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2740,19 +2705,19 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35" t="s">
-        <v>68</v>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>460</v>
+      <c r="I35" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2763,19 +2728,19 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>25</v>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2786,19 +2751,19 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" t="s">
-        <v>71</v>
+      <c r="E37">
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>423</v>
+      <c r="I37" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2809,19 +2774,19 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
-        <v>68</v>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2832,19 +2797,19 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
+      <c r="E39">
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>433</v>
+      <c r="I39" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2855,8 +2820,8 @@
       <c r="D40" t="s">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
-        <v>25</v>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>54</v>
@@ -2865,12 +2830,12 @@
         <v>22</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2890,13 +2855,13 @@
       <c r="H41" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>462</v>
+      <c r="I41" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2907,19 +2872,19 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="E42" t="s">
-        <v>25</v>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2930,19 +2895,19 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
-        <v>33</v>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>467</v>
+      <c r="I43" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2963,12 +2928,12 @@
         <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2991,13 +2956,13 @@
       <c r="H45" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>468</v>
+      <c r="I45" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3021,12 +2986,12 @@
         <v>60</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3043,13 +3008,13 @@
       <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>459</v>
+      <c r="I47" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3060,19 +3025,19 @@
       <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="E48" t="s">
-        <v>11</v>
+      <c r="E48">
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>54</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3092,13 +3057,13 @@
       <c r="G49" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>435</v>
+      <c r="I49" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3119,12 +3084,12 @@
         <v>22</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3135,8 +3100,8 @@
       <c r="D51" t="s">
         <v>10</v>
       </c>
-      <c r="E51" t="s">
-        <v>71</v>
+      <c r="E51">
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -3144,13 +3109,13 @@
       <c r="G51" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>426</v>
+      <c r="I51" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3171,12 +3136,12 @@
         <v>22</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3187,8 +3152,8 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" t="s">
-        <v>11</v>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>54</v>
@@ -3196,13 +3161,13 @@
       <c r="G53" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>438</v>
+      <c r="I53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3220,12 +3185,12 @@
         <v>21</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3234,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -3242,13 +3207,13 @@
       <c r="F55" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3257,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -3269,12 +3234,12 @@
         <v>60</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3285,8 +3250,8 @@
       <c r="D57" t="s">
         <v>10</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
+      <c r="E57">
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -3294,13 +3259,13 @@
       <c r="G57" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>440</v>
+      <c r="I57" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3318,12 +3283,12 @@
         <v>21</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3334,19 +3299,19 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
-        <v>11</v>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>470</v>
+      <c r="I59" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3357,19 +3322,19 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
-        <v>18</v>
+      <c r="E60">
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3389,13 +3354,13 @@
       <c r="G61" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>437</v>
+      <c r="I61" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3406,19 +3371,19 @@
       <c r="D62" t="s">
         <v>50</v>
       </c>
-      <c r="E62" t="s">
-        <v>11</v>
+      <c r="E62">
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>54</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3427,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -3435,13 +3400,13 @@
       <c r="F63" t="s">
         <v>12</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>427</v>
+      <c r="I63" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3462,12 +3427,12 @@
         <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3478,8 +3443,8 @@
       <c r="D65" t="s">
         <v>50</v>
       </c>
-      <c r="E65" t="s">
-        <v>71</v>
+      <c r="E65">
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
@@ -3487,13 +3452,13 @@
       <c r="G65" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>427</v>
+      <c r="I65" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3504,8 +3469,8 @@
       <c r="D66" t="s">
         <v>50</v>
       </c>
-      <c r="E66" t="s">
-        <v>71</v>
+      <c r="E66">
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>54</v>
@@ -3514,12 +3479,12 @@
         <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3539,13 +3504,13 @@
       <c r="H67" t="s">
         <v>60</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3566,12 +3531,12 @@
         <v>60</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3588,13 +3553,13 @@
       <c r="F69" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>429</v>
+      <c r="I69" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3612,12 +3577,12 @@
         <v>21</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3634,13 +3599,13 @@
       <c r="F71" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>473</v>
+      <c r="I71" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3658,12 +3623,12 @@
         <v>21</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3674,19 +3639,19 @@
       <c r="D73" t="s">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
-        <v>18</v>
+      <c r="E73">
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>460</v>
+      <c r="I73" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3707,12 +3672,12 @@
         <v>22</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3723,8 +3688,8 @@
       <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="E75" t="s">
-        <v>43</v>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -3732,13 +3697,13 @@
       <c r="H75" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>446</v>
+      <c r="I75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3749,19 +3714,19 @@
       <c r="D76" t="s">
         <v>10</v>
       </c>
-      <c r="E76" t="s">
-        <v>11</v>
+      <c r="E76">
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3772,19 +3737,19 @@
       <c r="D77" t="s">
         <v>50</v>
       </c>
-      <c r="E77" t="s">
-        <v>25</v>
+      <c r="E77">
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>429</v>
+      <c r="I77" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3805,12 +3770,12 @@
         <v>22</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3819,7 +3784,7 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -3827,13 +3792,13 @@
       <c r="F79" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>460</v>
+      <c r="I79" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3844,8 +3809,8 @@
       <c r="D80" t="s">
         <v>50</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
+      <c r="E80">
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>21</v>
@@ -3854,12 +3819,12 @@
         <v>22</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3870,8 +3835,8 @@
       <c r="D81" t="s">
         <v>10</v>
       </c>
-      <c r="E81" t="s">
-        <v>11</v>
+      <c r="E81">
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>21</v>
@@ -3879,13 +3844,13 @@
       <c r="G81" t="s">
         <v>22</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>447</v>
+      <c r="I81" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3896,19 +3861,19 @@
       <c r="D82" t="s">
         <v>10</v>
       </c>
-      <c r="E82" t="s">
-        <v>71</v>
+      <c r="E82">
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3928,13 +3893,13 @@
       <c r="H83" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>431</v>
+      <c r="I83" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3945,8 +3910,8 @@
       <c r="D84" t="s">
         <v>10</v>
       </c>
-      <c r="E84" t="s">
-        <v>25</v>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
@@ -3955,12 +3920,12 @@
         <v>22</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3971,8 +3936,8 @@
       <c r="D85" t="s">
         <v>10</v>
       </c>
-      <c r="E85" t="s">
-        <v>25</v>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3980,13 +3945,13 @@
       <c r="H85" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>439</v>
+      <c r="I85" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4007,12 +3972,12 @@
         <v>22</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4023,19 +3988,19 @@
       <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="E87" t="s">
-        <v>124</v>
+      <c r="E87">
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>474</v>
+      <c r="I87" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4046,8 +4011,8 @@
       <c r="D88" t="s">
         <v>10</v>
       </c>
-      <c r="E88" t="s">
-        <v>11</v>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
@@ -4056,12 +4021,12 @@
         <v>60</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4072,8 +4037,8 @@
       <c r="D89" t="s">
         <v>10</v>
       </c>
-      <c r="E89" t="s">
-        <v>25</v>
+      <c r="E89">
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>21</v>
@@ -4081,13 +4046,13 @@
       <c r="G89" t="s">
         <v>22</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>425</v>
+      <c r="I89" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4108,12 +4073,12 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4124,19 +4089,19 @@
       <c r="D91" t="s">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
-        <v>25</v>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4157,12 +4122,12 @@
         <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4173,8 +4138,8 @@
       <c r="D93" t="s">
         <v>10</v>
       </c>
-      <c r="E93" t="s">
-        <v>25</v>
+      <c r="E93">
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
@@ -4183,12 +4148,12 @@
         <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4199,19 +4164,19 @@
       <c r="D94" t="s">
         <v>10</v>
       </c>
-      <c r="E94" t="s">
-        <v>33</v>
+      <c r="E94">
+        <v>0</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4232,12 +4197,12 @@
         <v>60</v>
       </c>
       <c r="I95" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4248,8 +4213,8 @@
       <c r="D96" t="s">
         <v>10</v>
       </c>
-      <c r="E96" t="s">
-        <v>33</v>
+      <c r="E96">
+        <v>0</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -4258,12 +4223,12 @@
         <v>22</v>
       </c>
       <c r="I96" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4274,8 +4239,8 @@
       <c r="D97" t="s">
         <v>10</v>
       </c>
-      <c r="E97" t="s">
-        <v>33</v>
+      <c r="E97">
+        <v>0</v>
       </c>
       <c r="F97" t="s">
         <v>57</v>
@@ -4287,12 +4252,12 @@
         <v>60</v>
       </c>
       <c r="I97" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4303,19 +4268,19 @@
       <c r="D98" t="s">
         <v>10</v>
       </c>
-      <c r="E98" t="s">
-        <v>25</v>
+      <c r="E98">
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>54</v>
       </c>
       <c r="I98" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -4336,12 +4301,12 @@
         <v>22</v>
       </c>
       <c r="I99" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4362,12 +4327,12 @@
         <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -4378,8 +4343,8 @@
       <c r="D101" t="s">
         <v>10</v>
       </c>
-      <c r="E101" t="s">
-        <v>11</v>
+      <c r="E101">
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
@@ -4388,12 +4353,12 @@
         <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -4404,8 +4369,8 @@
       <c r="D102" t="s">
         <v>10</v>
       </c>
-      <c r="E102" t="s">
-        <v>11</v>
+      <c r="E102">
+        <v>2</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -4414,12 +4379,12 @@
         <v>22</v>
       </c>
       <c r="I102" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -4430,19 +4395,19 @@
       <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="E103" t="s">
-        <v>33</v>
+      <c r="E103">
+        <v>0</v>
       </c>
       <c r="F103" t="s">
         <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -4453,19 +4418,19 @@
       <c r="D104" t="s">
         <v>10</v>
       </c>
-      <c r="E104" t="s">
-        <v>142</v>
+      <c r="E104">
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4476,8 +4441,8 @@
       <c r="D105" t="s">
         <v>10</v>
       </c>
-      <c r="E105" t="s">
-        <v>18</v>
+      <c r="E105">
+        <v>4</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -4486,12 +4451,12 @@
         <v>22</v>
       </c>
       <c r="I105" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -4502,8 +4467,8 @@
       <c r="D106" t="s">
         <v>10</v>
       </c>
-      <c r="E106" t="s">
-        <v>11</v>
+      <c r="E106">
+        <v>2</v>
       </c>
       <c r="F106" t="s">
         <v>35</v>
@@ -4512,12 +4477,12 @@
         <v>22</v>
       </c>
       <c r="I106" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4528,19 +4493,19 @@
       <c r="D107" t="s">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
-        <v>33</v>
+      <c r="E107">
+        <v>0</v>
       </c>
       <c r="F107" t="s">
         <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -4561,12 +4526,12 @@
         <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -4577,8 +4542,8 @@
       <c r="D109" t="s">
         <v>10</v>
       </c>
-      <c r="E109" t="s">
-        <v>33</v>
+      <c r="E109">
+        <v>0</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -4587,12 +4552,12 @@
         <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4603,8 +4568,8 @@
       <c r="D110" t="s">
         <v>10</v>
       </c>
-      <c r="E110" t="s">
-        <v>25</v>
+      <c r="E110">
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
@@ -4613,12 +4578,12 @@
         <v>22</v>
       </c>
       <c r="I110" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -4629,19 +4594,19 @@
       <c r="D111" t="s">
         <v>10</v>
       </c>
-      <c r="E111" t="s">
-        <v>11</v>
+      <c r="E111">
+        <v>2</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -4650,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
         <v>25</v>
@@ -4659,12 +4624,12 @@
         <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -4675,19 +4640,19 @@
       <c r="D113" t="s">
         <v>10</v>
       </c>
-      <c r="E113" t="s">
-        <v>18</v>
+      <c r="E113">
+        <v>4</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -4708,12 +4673,12 @@
         <v>22</v>
       </c>
       <c r="I114" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -4724,8 +4689,8 @@
       <c r="D115" t="s">
         <v>10</v>
       </c>
-      <c r="E115" t="s">
-        <v>11</v>
+      <c r="E115">
+        <v>2</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -4734,12 +4699,12 @@
         <v>22</v>
       </c>
       <c r="I115" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -4750,8 +4715,8 @@
       <c r="D116" t="s">
         <v>10</v>
       </c>
-      <c r="E116" t="s">
-        <v>33</v>
+      <c r="E116">
+        <v>0</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -4760,12 +4725,12 @@
         <v>60</v>
       </c>
       <c r="I116" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4776,8 +4741,8 @@
       <c r="D117" t="s">
         <v>10</v>
       </c>
-      <c r="E117" t="s">
-        <v>157</v>
+      <c r="E117">
+        <v>2</v>
       </c>
       <c r="F117" t="s">
         <v>21</v>
@@ -4786,12 +4751,12 @@
         <v>22</v>
       </c>
       <c r="I117" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -4802,8 +4767,8 @@
       <c r="D118" t="s">
         <v>10</v>
       </c>
-      <c r="E118" t="s">
-        <v>11</v>
+      <c r="E118">
+        <v>2</v>
       </c>
       <c r="F118" t="s">
         <v>21</v>
@@ -4812,12 +4777,12 @@
         <v>22</v>
       </c>
       <c r="I118" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -4828,8 +4793,8 @@
       <c r="D119" t="s">
         <v>10</v>
       </c>
-      <c r="E119" t="s">
-        <v>11</v>
+      <c r="E119">
+        <v>2</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -4838,12 +4803,12 @@
         <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -4854,8 +4819,8 @@
       <c r="D120" t="s">
         <v>10</v>
       </c>
-      <c r="E120" t="s">
-        <v>33</v>
+      <c r="E120">
+        <v>0</v>
       </c>
       <c r="F120" t="s">
         <v>21</v>
@@ -4864,12 +4829,12 @@
         <v>22</v>
       </c>
       <c r="I120" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -4880,19 +4845,19 @@
       <c r="D121" t="s">
         <v>10</v>
       </c>
-      <c r="E121" t="s">
-        <v>11</v>
+      <c r="E121">
+        <v>2</v>
       </c>
       <c r="F121" t="s">
         <v>54</v>
       </c>
       <c r="I121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -4903,19 +4868,19 @@
       <c r="D122" t="s">
         <v>10</v>
       </c>
-      <c r="E122" t="s">
-        <v>33</v>
+      <c r="E122">
+        <v>0</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="I122" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -4926,8 +4891,8 @@
       <c r="D123" t="s">
         <v>10</v>
       </c>
-      <c r="E123" t="s">
-        <v>11</v>
+      <c r="E123">
+        <v>2</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -4936,12 +4901,12 @@
         <v>22</v>
       </c>
       <c r="I123" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -4962,12 +4927,12 @@
         <v>60</v>
       </c>
       <c r="I124" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -4988,12 +4953,12 @@
         <v>22</v>
       </c>
       <c r="I125" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -5014,12 +4979,12 @@
         <v>60</v>
       </c>
       <c r="I126" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -5030,8 +4995,8 @@
       <c r="D127" t="s">
         <v>50</v>
       </c>
-      <c r="E127" t="s">
-        <v>33</v>
+      <c r="E127">
+        <v>0</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
@@ -5040,12 +5005,12 @@
         <v>22</v>
       </c>
       <c r="I127" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -5056,19 +5021,19 @@
       <c r="D128" t="s">
         <v>10</v>
       </c>
-      <c r="E128" t="s">
-        <v>71</v>
+      <c r="E128">
+        <v>3</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
       </c>
       <c r="I128" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -5086,12 +5051,12 @@
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -5109,12 +5074,12 @@
         <v>54</v>
       </c>
       <c r="I130" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -5125,8 +5090,8 @@
       <c r="D131" t="s">
         <v>10</v>
       </c>
-      <c r="E131" t="s">
-        <v>18</v>
+      <c r="E131">
+        <v>4</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -5135,12 +5100,12 @@
         <v>22</v>
       </c>
       <c r="I131" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -5151,19 +5116,19 @@
       <c r="D132" t="s">
         <v>10</v>
       </c>
-      <c r="E132" t="s">
-        <v>33</v>
+      <c r="E132">
+        <v>0</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
       </c>
       <c r="I132" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -5184,12 +5149,12 @@
         <v>22</v>
       </c>
       <c r="I133" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -5200,8 +5165,8 @@
       <c r="D134" t="s">
         <v>10</v>
       </c>
-      <c r="E134" t="s">
-        <v>11</v>
+      <c r="E134">
+        <v>2</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -5210,12 +5175,12 @@
         <v>22</v>
       </c>
       <c r="I134" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -5224,7 +5189,7 @@
         <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E135" t="s">
         <v>25</v>
@@ -5233,12 +5198,12 @@
         <v>54</v>
       </c>
       <c r="I135" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -5249,19 +5214,19 @@
       <c r="D136" t="s">
         <v>10</v>
       </c>
-      <c r="E136" t="s">
-        <v>33</v>
+      <c r="E136">
+        <v>0</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -5272,8 +5237,8 @@
       <c r="D137" t="s">
         <v>10</v>
       </c>
-      <c r="E137" t="s">
-        <v>11</v>
+      <c r="E137">
+        <v>2</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
@@ -5282,12 +5247,12 @@
         <v>22</v>
       </c>
       <c r="I137" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -5298,19 +5263,19 @@
       <c r="D138" t="s">
         <v>10</v>
       </c>
-      <c r="E138" t="s">
-        <v>33</v>
+      <c r="E138">
+        <v>0</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
       </c>
       <c r="I138" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -5321,19 +5286,19 @@
       <c r="D139" t="s">
         <v>10</v>
       </c>
-      <c r="E139" t="s">
-        <v>18</v>
+      <c r="E139">
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -5351,12 +5316,12 @@
         <v>21</v>
       </c>
       <c r="I140" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -5367,19 +5332,19 @@
       <c r="D141" t="s">
         <v>10</v>
       </c>
-      <c r="E141" t="s">
-        <v>11</v>
+      <c r="E141">
+        <v>2</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -5390,8 +5355,8 @@
       <c r="D142" t="s">
         <v>10</v>
       </c>
-      <c r="E142" t="s">
-        <v>18</v>
+      <c r="E142">
+        <v>4</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
@@ -5403,12 +5368,12 @@
         <v>60</v>
       </c>
       <c r="I142" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -5419,8 +5384,8 @@
       <c r="D143" t="s">
         <v>10</v>
       </c>
-      <c r="E143" t="s">
-        <v>33</v>
+      <c r="E143">
+        <v>0</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -5429,12 +5394,12 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -5445,8 +5410,8 @@
       <c r="D144" t="s">
         <v>10</v>
       </c>
-      <c r="E144" t="s">
-        <v>185</v>
+      <c r="E144">
+        <v>5</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -5455,12 +5420,12 @@
         <v>22</v>
       </c>
       <c r="I144" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -5471,19 +5436,19 @@
       <c r="D145" t="s">
         <v>50</v>
       </c>
-      <c r="E145" t="s">
-        <v>11</v>
+      <c r="E145">
+        <v>2</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -5494,8 +5459,8 @@
       <c r="D146" t="s">
         <v>10</v>
       </c>
-      <c r="E146" t="s">
-        <v>25</v>
+      <c r="E146">
+        <v>1</v>
       </c>
       <c r="F146" t="s">
         <v>35</v>
@@ -5504,12 +5469,12 @@
         <v>22</v>
       </c>
       <c r="I146" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -5520,19 +5485,19 @@
       <c r="D147" t="s">
         <v>10</v>
       </c>
-      <c r="E147" t="s">
-        <v>33</v>
+      <c r="E147">
+        <v>0</v>
       </c>
       <c r="F147" t="s">
         <v>21</v>
       </c>
       <c r="I147" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -5543,8 +5508,8 @@
       <c r="D148" t="s">
         <v>10</v>
       </c>
-      <c r="E148" t="s">
-        <v>11</v>
+      <c r="E148">
+        <v>2</v>
       </c>
       <c r="F148" t="s">
         <v>21</v>
@@ -5553,12 +5518,12 @@
         <v>22</v>
       </c>
       <c r="I148" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -5569,19 +5534,19 @@
       <c r="D149" t="s">
         <v>10</v>
       </c>
-      <c r="E149" t="s">
-        <v>11</v>
+      <c r="E149">
+        <v>2</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -5599,12 +5564,12 @@
         <v>21</v>
       </c>
       <c r="I150" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -5615,8 +5580,8 @@
       <c r="D151" t="s">
         <v>10</v>
       </c>
-      <c r="E151" t="s">
-        <v>193</v>
+      <c r="E151">
+        <v>1</v>
       </c>
       <c r="F151" t="s">
         <v>54</v>
@@ -5625,12 +5590,12 @@
         <v>22</v>
       </c>
       <c r="I151" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -5641,8 +5606,8 @@
       <c r="D152" t="s">
         <v>10</v>
       </c>
-      <c r="E152" t="s">
-        <v>25</v>
+      <c r="E152">
+        <v>1</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -5651,12 +5616,12 @@
         <v>22</v>
       </c>
       <c r="I152" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -5667,8 +5632,8 @@
       <c r="D153" t="s">
         <v>10</v>
       </c>
-      <c r="E153" t="s">
-        <v>33</v>
+      <c r="E153">
+        <v>0</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
@@ -5677,12 +5642,12 @@
         <v>22</v>
       </c>
       <c r="I153" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -5703,12 +5668,12 @@
         <v>22</v>
       </c>
       <c r="I154" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -5726,12 +5691,12 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -5742,8 +5707,8 @@
       <c r="D156" t="s">
         <v>10</v>
       </c>
-      <c r="E156" t="s">
-        <v>18</v>
+      <c r="E156">
+        <v>4</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -5752,12 +5717,12 @@
         <v>22</v>
       </c>
       <c r="I156" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -5766,10 +5731,10 @@
         <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E157" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F157" t="s">
         <v>21</v>
@@ -5778,12 +5743,12 @@
         <v>22</v>
       </c>
       <c r="I157" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -5794,8 +5759,8 @@
       <c r="D158" t="s">
         <v>10</v>
       </c>
-      <c r="E158" t="s">
-        <v>11</v>
+      <c r="E158">
+        <v>2</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
@@ -5804,12 +5769,12 @@
         <v>22</v>
       </c>
       <c r="I158" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -5820,19 +5785,19 @@
       <c r="D159" t="s">
         <v>10</v>
       </c>
-      <c r="E159" t="s">
-        <v>203</v>
+      <c r="E159">
+        <v>2</v>
       </c>
       <c r="F159" t="s">
         <v>21</v>
       </c>
       <c r="I159" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -5841,7 +5806,7 @@
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -5850,12 +5815,12 @@
         <v>57</v>
       </c>
       <c r="I160" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -5866,19 +5831,19 @@
       <c r="D161" t="s">
         <v>10</v>
       </c>
-      <c r="E161" t="s">
-        <v>25</v>
+      <c r="E161">
+        <v>1</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -5899,12 +5864,12 @@
         <v>22</v>
       </c>
       <c r="I162" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -5915,19 +5880,19 @@
       <c r="D163" t="s">
         <v>10</v>
       </c>
-      <c r="E163" t="s">
-        <v>11</v>
+      <c r="E163">
+        <v>2</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
       </c>
       <c r="I163" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -5938,19 +5903,19 @@
       <c r="D164" t="s">
         <v>10</v>
       </c>
-      <c r="E164" t="s">
-        <v>18</v>
+      <c r="E164">
+        <v>4</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
       </c>
       <c r="I164" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -5961,8 +5926,8 @@
       <c r="D165" t="s">
         <v>10</v>
       </c>
-      <c r="E165" t="s">
-        <v>33</v>
+      <c r="E165">
+        <v>0</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
@@ -5971,14 +5936,14 @@
         <v>22</v>
       </c>
       <c r="I165" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -5989,8 +5954,8 @@
       <c r="D166" t="s">
         <v>10</v>
       </c>
-      <c r="E166" t="s">
-        <v>211</v>
+      <c r="E166">
+        <v>1</v>
       </c>
       <c r="F166" t="s">
         <v>21</v>
@@ -5999,14 +5964,12 @@
         <v>22</v>
       </c>
       <c r="I166" t="s">
-        <v>444</v>
-      </c>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
+        <v>430</v>
+      </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -6017,8 +5980,8 @@
       <c r="D167" t="s">
         <v>10</v>
       </c>
-      <c r="E167" t="s">
-        <v>33</v>
+      <c r="E167">
+        <v>0</v>
       </c>
       <c r="F167" t="s">
         <v>21</v>
@@ -6027,14 +5990,14 @@
         <v>60</v>
       </c>
       <c r="I167" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -6045,21 +6008,19 @@
       <c r="D168" t="s">
         <v>10</v>
       </c>
-      <c r="E168" t="s">
-        <v>185</v>
+      <c r="E168">
+        <v>5</v>
       </c>
       <c r="F168" t="s">
         <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>423</v>
-      </c>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
+        <v>409</v>
+      </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -6070,8 +6031,8 @@
       <c r="D169" t="s">
         <v>10</v>
       </c>
-      <c r="E169" t="s">
-        <v>33</v>
+      <c r="E169">
+        <v>0</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
@@ -6080,14 +6041,14 @@
         <v>22</v>
       </c>
       <c r="I169" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -6098,8 +6059,8 @@
       <c r="D170" t="s">
         <v>10</v>
       </c>
-      <c r="E170" t="s">
-        <v>33</v>
+      <c r="E170">
+        <v>0</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -6108,14 +6069,12 @@
         <v>22</v>
       </c>
       <c r="I170" t="s">
-        <v>439</v>
-      </c>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -6124,7 +6083,7 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E171" t="s">
         <v>33</v>
@@ -6133,14 +6092,14 @@
         <v>21</v>
       </c>
       <c r="I171" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -6151,8 +6110,8 @@
       <c r="D172" t="s">
         <v>10</v>
       </c>
-      <c r="E172" t="s">
-        <v>25</v>
+      <c r="E172">
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>21</v>
@@ -6161,14 +6120,12 @@
         <v>22</v>
       </c>
       <c r="I172" t="s">
-        <v>423</v>
-      </c>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
+        <v>409</v>
+      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -6179,8 +6136,8 @@
       <c r="D173" t="s">
         <v>10</v>
       </c>
-      <c r="E173" t="s">
-        <v>185</v>
+      <c r="E173">
+        <v>5</v>
       </c>
       <c r="F173" t="s">
         <v>21</v>
@@ -6189,14 +6146,14 @@
         <v>22</v>
       </c>
       <c r="I173" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -6207,8 +6164,8 @@
       <c r="D174" t="s">
         <v>10</v>
       </c>
-      <c r="E174" t="s">
-        <v>18</v>
+      <c r="E174">
+        <v>4</v>
       </c>
       <c r="F174" t="s">
         <v>30</v>
@@ -6217,14 +6174,12 @@
         <v>22</v>
       </c>
       <c r="I174" t="s">
-        <v>447</v>
-      </c>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -6236,7 +6191,7 @@
         <v>38</v>
       </c>
       <c r="E175" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -6245,14 +6200,14 @@
         <v>60</v>
       </c>
       <c r="I175" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -6273,14 +6228,12 @@
         <v>22</v>
       </c>
       <c r="I176" t="s">
-        <v>437</v>
-      </c>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
+        <v>423</v>
+      </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -6291,21 +6244,21 @@
       <c r="D177" t="s">
         <v>10</v>
       </c>
-      <c r="E177" t="s">
-        <v>224</v>
+      <c r="E177">
+        <v>3</v>
       </c>
       <c r="F177" t="s">
         <v>21</v>
       </c>
       <c r="I177" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -6323,14 +6276,12 @@
         <v>21</v>
       </c>
       <c r="I178" t="s">
-        <v>455</v>
-      </c>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
+        <v>441</v>
+      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -6341,8 +6292,8 @@
       <c r="D179" t="s">
         <v>10</v>
       </c>
-      <c r="E179" t="s">
-        <v>18</v>
+      <c r="E179">
+        <v>4</v>
       </c>
       <c r="F179" t="s">
         <v>21</v>
@@ -6351,14 +6302,14 @@
         <v>22</v>
       </c>
       <c r="I179" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -6369,21 +6320,19 @@
       <c r="D180" t="s">
         <v>50</v>
       </c>
-      <c r="E180" t="s">
-        <v>11</v>
+      <c r="E180">
+        <v>2</v>
       </c>
       <c r="F180" t="s">
         <v>54</v>
       </c>
       <c r="I180" t="s">
-        <v>432</v>
-      </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
+        <v>418</v>
+      </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -6394,8 +6343,8 @@
       <c r="D181" t="s">
         <v>10</v>
       </c>
-      <c r="E181" t="s">
-        <v>33</v>
+      <c r="E181">
+        <v>0</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
@@ -6404,14 +6353,14 @@
         <v>60</v>
       </c>
       <c r="I181" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -6422,21 +6371,19 @@
       <c r="D182" t="s">
         <v>10</v>
       </c>
-      <c r="E182" t="s">
-        <v>33</v>
+      <c r="E182">
+        <v>0</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
       </c>
       <c r="I182" t="s">
-        <v>439</v>
-      </c>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -6457,14 +6404,14 @@
         <v>60</v>
       </c>
       <c r="I183" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -6473,23 +6420,21 @@
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E184" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
       </c>
       <c r="I184" t="s">
-        <v>436</v>
-      </c>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
+        <v>422</v>
+      </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -6500,8 +6445,8 @@
       <c r="D185" t="s">
         <v>10</v>
       </c>
-      <c r="E185" t="s">
-        <v>33</v>
+      <c r="E185">
+        <v>0</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -6510,14 +6455,14 @@
         <v>22</v>
       </c>
       <c r="I185" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -6528,21 +6473,19 @@
       <c r="D186" t="s">
         <v>10</v>
       </c>
-      <c r="E186" t="s">
-        <v>33</v>
+      <c r="E186">
+        <v>0</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
       </c>
       <c r="I186" t="s">
-        <v>433</v>
-      </c>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
+        <v>419</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -6553,21 +6496,21 @@
       <c r="D187" t="s">
         <v>10</v>
       </c>
-      <c r="E187" t="s">
-        <v>33</v>
+      <c r="E187">
+        <v>0</v>
       </c>
       <c r="F187" t="s">
         <v>21</v>
       </c>
       <c r="I187" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -6578,21 +6521,19 @@
       <c r="D188" t="s">
         <v>10</v>
       </c>
-      <c r="E188" t="s">
-        <v>237</v>
+      <c r="E188">
+        <v>6</v>
       </c>
       <c r="F188" t="s">
         <v>21</v>
       </c>
       <c r="I188" t="s">
-        <v>426</v>
-      </c>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -6603,8 +6544,8 @@
       <c r="D189" t="s">
         <v>10</v>
       </c>
-      <c r="E189" t="s">
-        <v>185</v>
+      <c r="E189">
+        <v>5</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -6613,14 +6554,14 @@
         <v>22</v>
       </c>
       <c r="I189" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -6631,8 +6572,8 @@
       <c r="D190" t="s">
         <v>10</v>
       </c>
-      <c r="E190" t="s">
-        <v>18</v>
+      <c r="E190">
+        <v>4</v>
       </c>
       <c r="F190" t="s">
         <v>21</v>
@@ -6641,14 +6582,12 @@
         <v>22</v>
       </c>
       <c r="I190" t="s">
-        <v>447</v>
-      </c>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
+        <v>433</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -6659,21 +6598,21 @@
       <c r="D191" t="s">
         <v>10</v>
       </c>
-      <c r="E191" t="s">
-        <v>43</v>
+      <c r="E191">
+        <v>1</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -6684,21 +6623,19 @@
       <c r="D192" t="s">
         <v>10</v>
       </c>
-      <c r="E192" t="s">
-        <v>193</v>
+      <c r="E192">
+        <v>1</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
       </c>
       <c r="I192" t="s">
-        <v>426</v>
-      </c>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -6709,8 +6646,8 @@
       <c r="D193" t="s">
         <v>10</v>
       </c>
-      <c r="E193" t="s">
-        <v>243</v>
+      <c r="E193">
+        <v>1</v>
       </c>
       <c r="F193" t="s">
         <v>21</v>
@@ -6719,14 +6656,14 @@
         <v>22</v>
       </c>
       <c r="I193" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -6737,8 +6674,8 @@
       <c r="D194" t="s">
         <v>10</v>
       </c>
-      <c r="E194" t="s">
-        <v>71</v>
+      <c r="E194">
+        <v>3</v>
       </c>
       <c r="F194" t="s">
         <v>21</v>
@@ -6747,14 +6684,12 @@
         <v>22</v>
       </c>
       <c r="I194" t="s">
-        <v>424</v>
-      </c>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
+        <v>410</v>
+      </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -6765,21 +6700,21 @@
       <c r="D195" t="s">
         <v>10</v>
       </c>
-      <c r="E195" t="s">
-        <v>33</v>
+      <c r="E195">
+        <v>0</v>
       </c>
       <c r="F195" t="s">
         <v>35</v>
       </c>
       <c r="I195" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -6800,14 +6735,12 @@
         <v>22</v>
       </c>
       <c r="I196" t="s">
-        <v>429</v>
-      </c>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -6818,8 +6751,8 @@
       <c r="D197" t="s">
         <v>10</v>
       </c>
-      <c r="E197" t="s">
-        <v>25</v>
+      <c r="E197">
+        <v>1</v>
       </c>
       <c r="F197" t="s">
         <v>21</v>
@@ -6828,14 +6761,14 @@
         <v>60</v>
       </c>
       <c r="I197" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -6846,8 +6779,8 @@
       <c r="D198" t="s">
         <v>10</v>
       </c>
-      <c r="E198" t="s">
-        <v>25</v>
+      <c r="E198">
+        <v>1</v>
       </c>
       <c r="F198" t="s">
         <v>21</v>
@@ -6856,14 +6789,12 @@
         <v>60</v>
       </c>
       <c r="I198" t="s">
-        <v>447</v>
-      </c>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
+        <v>433</v>
+      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -6874,8 +6805,8 @@
       <c r="D199" t="s">
         <v>10</v>
       </c>
-      <c r="E199" t="s">
-        <v>18</v>
+      <c r="E199">
+        <v>4</v>
       </c>
       <c r="F199" t="s">
         <v>21</v>
@@ -6884,14 +6815,14 @@
         <v>22</v>
       </c>
       <c r="I199" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -6902,8 +6833,8 @@
       <c r="D200" t="s">
         <v>10</v>
       </c>
-      <c r="E200" t="s">
-        <v>25</v>
+      <c r="E200">
+        <v>1</v>
       </c>
       <c r="F200" t="s">
         <v>21</v>
@@ -6912,14 +6843,12 @@
         <v>22</v>
       </c>
       <c r="I200" t="s">
-        <v>441</v>
-      </c>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
+        <v>427</v>
+      </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -6930,8 +6859,8 @@
       <c r="D201" t="s">
         <v>10</v>
       </c>
-      <c r="E201" t="s">
-        <v>193</v>
+      <c r="E201">
+        <v>1</v>
       </c>
       <c r="F201" t="s">
         <v>54</v>
@@ -6939,13 +6868,12 @@
       <c r="G201" t="s">
         <v>22</v>
       </c>
-      <c r="I201" s="2"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -6956,8 +6884,8 @@
       <c r="D202" t="s">
         <v>10</v>
       </c>
-      <c r="E202" t="s">
-        <v>193</v>
+      <c r="E202">
+        <v>1</v>
       </c>
       <c r="F202" t="s">
         <v>54</v>
@@ -6966,12 +6894,10 @@
         <v>22</v>
       </c>
       <c r="I202" s="1"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -6982,8 +6908,8 @@
       <c r="D203" t="s">
         <v>10</v>
       </c>
-      <c r="E203" t="s">
-        <v>11</v>
+      <c r="E203">
+        <v>2</v>
       </c>
       <c r="F203" t="s">
         <v>21</v>
@@ -6991,13 +6917,12 @@
       <c r="G203" t="s">
         <v>22</v>
       </c>
-      <c r="I203" s="2"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -7008,19 +6933,17 @@
       <c r="D204" t="s">
         <v>10</v>
       </c>
-      <c r="E204" t="s">
-        <v>25</v>
+      <c r="E204">
+        <v>1</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
       </c>
       <c r="I204" s="1"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B205">
         <v>4</v>
@@ -7031,8 +6954,8 @@
       <c r="D205" t="s">
         <v>10</v>
       </c>
-      <c r="E205" t="s">
-        <v>25</v>
+      <c r="E205">
+        <v>1</v>
       </c>
       <c r="F205" t="s">
         <v>12</v>
@@ -7040,13 +6963,12 @@
       <c r="G205" t="s">
         <v>22</v>
       </c>
-      <c r="I205" s="2"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B206">
         <v>4</v>
@@ -7057,8 +6979,8 @@
       <c r="D206" t="s">
         <v>10</v>
       </c>
-      <c r="E206" t="s">
-        <v>71</v>
+      <c r="E206">
+        <v>3</v>
       </c>
       <c r="F206" t="s">
         <v>21</v>
@@ -7067,12 +6989,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="1"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B207">
         <v>4</v>
@@ -7084,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="E207" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F207" t="s">
         <v>12</v>
@@ -7092,13 +7012,12 @@
       <c r="G207" t="s">
         <v>22</v>
       </c>
-      <c r="I207" s="2"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B208">
         <v>4</v>
@@ -7109,8 +7028,8 @@
       <c r="D208" t="s">
         <v>10</v>
       </c>
-      <c r="E208" t="s">
-        <v>11</v>
+      <c r="E208">
+        <v>2</v>
       </c>
       <c r="F208" t="s">
         <v>21</v>
@@ -7119,12 +7038,10 @@
         <v>22</v>
       </c>
       <c r="I208" s="1"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -7135,8 +7052,8 @@
       <c r="D209" t="s">
         <v>10</v>
       </c>
-      <c r="E209" t="s">
-        <v>260</v>
+      <c r="E209">
+        <v>6</v>
       </c>
       <c r="F209" t="s">
         <v>21</v>
@@ -7144,13 +7061,12 @@
       <c r="G209" t="s">
         <v>22</v>
       </c>
-      <c r="I209" s="2"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B210">
         <v>4</v>
@@ -7161,19 +7077,17 @@
       <c r="D210" t="s">
         <v>10</v>
       </c>
-      <c r="E210" t="s">
-        <v>33</v>
+      <c r="E210">
+        <v>0</v>
       </c>
       <c r="F210" t="s">
         <v>12</v>
       </c>
       <c r="I210" s="1"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -7184,19 +7098,18 @@
       <c r="D211" t="s">
         <v>10</v>
       </c>
-      <c r="E211" t="s">
-        <v>263</v>
+      <c r="E211">
+        <v>6</v>
       </c>
       <c r="F211" t="s">
         <v>54</v>
       </c>
-      <c r="I211" s="2"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -7217,12 +7130,10 @@
         <v>60</v>
       </c>
       <c r="I212" s="1"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -7233,8 +7144,8 @@
       <c r="D213" t="s">
         <v>10</v>
       </c>
-      <c r="E213" t="s">
-        <v>11</v>
+      <c r="E213">
+        <v>2</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -7242,13 +7153,12 @@
       <c r="G213" t="s">
         <v>22</v>
       </c>
-      <c r="I213" s="2"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -7259,8 +7169,8 @@
       <c r="D214" t="s">
         <v>10</v>
       </c>
-      <c r="E214" t="s">
-        <v>71</v>
+      <c r="E214">
+        <v>3</v>
       </c>
       <c r="F214" t="s">
         <v>21</v>
@@ -7269,12 +7179,10 @@
         <v>22</v>
       </c>
       <c r="I214" s="1"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -7283,7 +7191,7 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
@@ -7291,13 +7199,12 @@
       <c r="F215" t="s">
         <v>12</v>
       </c>
-      <c r="I215" s="2"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -7315,12 +7222,10 @@
         <v>21</v>
       </c>
       <c r="I216" s="1"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -7331,19 +7236,18 @@
       <c r="D217" t="s">
         <v>10</v>
       </c>
-      <c r="E217" t="s">
-        <v>33</v>
+      <c r="E217">
+        <v>0</v>
       </c>
       <c r="F217" t="s">
         <v>21</v>
       </c>
-      <c r="I217" s="2"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B218">
         <v>4</v>
@@ -7354,8 +7258,8 @@
       <c r="D218" t="s">
         <v>10</v>
       </c>
-      <c r="E218" t="s">
-        <v>25</v>
+      <c r="E218">
+        <v>1</v>
       </c>
       <c r="F218" t="s">
         <v>12</v>
@@ -7364,12 +7268,10 @@
         <v>22</v>
       </c>
       <c r="I218" s="1"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B219">
         <v>4</v>
@@ -7380,8 +7282,8 @@
       <c r="D219" t="s">
         <v>50</v>
       </c>
-      <c r="E219" t="s">
-        <v>25</v>
+      <c r="E219">
+        <v>1</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
@@ -7389,13 +7291,12 @@
       <c r="G219" t="s">
         <v>22</v>
       </c>
-      <c r="I219" s="2"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B220">
         <v>4</v>
@@ -7406,8 +7307,8 @@
       <c r="D220" t="s">
         <v>10</v>
       </c>
-      <c r="E220" t="s">
-        <v>33</v>
+      <c r="E220">
+        <v>0</v>
       </c>
       <c r="F220" t="s">
         <v>12</v>
@@ -7416,12 +7317,10 @@
         <v>22</v>
       </c>
       <c r="I220" s="1"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B221">
         <v>4</v>
@@ -7432,19 +7331,18 @@
       <c r="D221" t="s">
         <v>10</v>
       </c>
-      <c r="E221" t="s">
-        <v>25</v>
+      <c r="E221">
+        <v>1</v>
       </c>
       <c r="F221" t="s">
         <v>54</v>
       </c>
-      <c r="I221" s="2"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B222">
         <v>4</v>
@@ -7453,21 +7351,19 @@
         <v>41</v>
       </c>
       <c r="D222" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E222" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F222" t="s">
         <v>21</v>
       </c>
       <c r="I222" s="1"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B223">
         <v>4</v>
@@ -7478,19 +7374,18 @@
       <c r="D223" t="s">
         <v>10</v>
       </c>
-      <c r="E223" t="s">
-        <v>260</v>
+      <c r="E223">
+        <v>6</v>
       </c>
       <c r="F223" t="s">
         <v>21</v>
       </c>
-      <c r="I223" s="2"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B224">
         <v>4</v>
@@ -7501,19 +7396,17 @@
       <c r="D224" t="s">
         <v>10</v>
       </c>
-      <c r="E224" t="s">
-        <v>33</v>
+      <c r="E224">
+        <v>0</v>
       </c>
       <c r="F224" t="s">
         <v>21</v>
       </c>
       <c r="I224" s="1"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B225">
         <v>4</v>
@@ -7533,13 +7426,12 @@
       <c r="G225" t="s">
         <v>22</v>
       </c>
-      <c r="I225" s="2"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B226">
         <v>4</v>
@@ -7550,19 +7442,17 @@
       <c r="D226" t="s">
         <v>10</v>
       </c>
-      <c r="E226" t="s">
-        <v>25</v>
+      <c r="E226">
+        <v>1</v>
       </c>
       <c r="F226" t="s">
         <v>21</v>
       </c>
       <c r="I226" s="1"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B227">
         <v>4</v>
@@ -7571,7 +7461,7 @@
         <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
@@ -7579,13 +7469,12 @@
       <c r="F227" t="s">
         <v>21</v>
       </c>
-      <c r="I227" s="2"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B228">
         <v>4</v>
@@ -7596,8 +7485,8 @@
       <c r="D228" t="s">
         <v>10</v>
       </c>
-      <c r="E228" t="s">
-        <v>25</v>
+      <c r="E228">
+        <v>1</v>
       </c>
       <c r="F228" t="s">
         <v>21</v>
@@ -7606,12 +7495,10 @@
         <v>22</v>
       </c>
       <c r="I228" s="1"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B229">
         <v>4</v>
@@ -7622,8 +7509,8 @@
       <c r="D229" t="s">
         <v>10</v>
       </c>
-      <c r="E229" t="s">
-        <v>18</v>
+      <c r="E229">
+        <v>4</v>
       </c>
       <c r="F229" t="s">
         <v>12</v>
@@ -7631,13 +7518,12 @@
       <c r="G229" t="s">
         <v>22</v>
       </c>
-      <c r="I229" s="2"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B230">
         <v>4</v>
@@ -7648,8 +7534,8 @@
       <c r="D230" t="s">
         <v>10</v>
       </c>
-      <c r="E230" t="s">
-        <v>11</v>
+      <c r="E230">
+        <v>2</v>
       </c>
       <c r="F230" t="s">
         <v>21</v>
@@ -7658,12 +7544,10 @@
         <v>22</v>
       </c>
       <c r="I230" s="1"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B231">
         <v>4</v>
@@ -7683,13 +7567,12 @@
       <c r="G231" t="s">
         <v>22</v>
       </c>
-      <c r="I231" s="2"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B232">
         <v>4</v>
@@ -7700,19 +7583,17 @@
       <c r="D232" t="s">
         <v>10</v>
       </c>
-      <c r="E232" t="s">
-        <v>33</v>
+      <c r="E232">
+        <v>0</v>
       </c>
       <c r="F232" t="s">
         <v>21</v>
       </c>
       <c r="I232" s="1"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -7723,8 +7604,8 @@
       <c r="D233" t="s">
         <v>10</v>
       </c>
-      <c r="E233" t="s">
-        <v>33</v>
+      <c r="E233">
+        <v>0</v>
       </c>
       <c r="F233" t="s">
         <v>21</v>
@@ -7732,13 +7613,12 @@
       <c r="G233" t="s">
         <v>22</v>
       </c>
-      <c r="I233" s="2"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B234">
         <v>4</v>
@@ -7749,8 +7629,8 @@
       <c r="D234" t="s">
         <v>10</v>
       </c>
-      <c r="E234" t="s">
-        <v>18</v>
+      <c r="E234">
+        <v>4</v>
       </c>
       <c r="F234" t="s">
         <v>21</v>
@@ -7759,12 +7639,10 @@
         <v>22</v>
       </c>
       <c r="I234" s="1"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -7775,8 +7653,8 @@
       <c r="D235" t="s">
         <v>10</v>
       </c>
-      <c r="E235" t="s">
-        <v>18</v>
+      <c r="E235">
+        <v>4</v>
       </c>
       <c r="F235" t="s">
         <v>12</v>
@@ -7784,13 +7662,12 @@
       <c r="G235" t="s">
         <v>22</v>
       </c>
-      <c r="I235" s="2"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -7801,8 +7678,8 @@
       <c r="D236" t="s">
         <v>10</v>
       </c>
-      <c r="E236" t="s">
-        <v>64</v>
+      <c r="E236">
+        <v>1</v>
       </c>
       <c r="F236" t="s">
         <v>12</v>
@@ -7811,12 +7688,10 @@
         <v>22</v>
       </c>
       <c r="I236" s="1"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -7825,7 +7700,7 @@
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E237" t="s">
         <v>33</v>
@@ -7833,13 +7708,12 @@
       <c r="F237" t="s">
         <v>21</v>
       </c>
-      <c r="I237" s="2"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -7860,12 +7734,10 @@
         <v>22</v>
       </c>
       <c r="I238" s="1"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -7876,8 +7748,8 @@
       <c r="D239" t="s">
         <v>10</v>
       </c>
-      <c r="E239" t="s">
-        <v>18</v>
+      <c r="E239">
+        <v>4</v>
       </c>
       <c r="F239" t="s">
         <v>21</v>
@@ -7885,13 +7757,12 @@
       <c r="G239" t="s">
         <v>22</v>
       </c>
-      <c r="I239" s="2"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -7902,8 +7773,8 @@
       <c r="D240" t="s">
         <v>10</v>
       </c>
-      <c r="E240" t="s">
-        <v>193</v>
+      <c r="E240">
+        <v>1</v>
       </c>
       <c r="F240" t="s">
         <v>54</v>
@@ -7912,12 +7783,10 @@
         <v>22</v>
       </c>
       <c r="I240" s="1"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -7928,8 +7797,8 @@
       <c r="D241" t="s">
         <v>10</v>
       </c>
-      <c r="E241" t="s">
-        <v>18</v>
+      <c r="E241">
+        <v>4</v>
       </c>
       <c r="F241" t="s">
         <v>12</v>
@@ -7937,13 +7806,12 @@
       <c r="G241" t="s">
         <v>22</v>
       </c>
-      <c r="I241" s="2"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -7964,12 +7832,10 @@
         <v>60</v>
       </c>
       <c r="I242" s="1"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -7989,13 +7855,12 @@
       <c r="H243" t="s">
         <v>60</v>
       </c>
-      <c r="I243" s="2"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -8006,19 +7871,17 @@
       <c r="D244" t="s">
         <v>10</v>
       </c>
-      <c r="E244" t="s">
-        <v>203</v>
+      <c r="E244">
+        <v>2</v>
       </c>
       <c r="F244" t="s">
         <v>21</v>
       </c>
       <c r="I244" s="1"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B245">
         <v>5</v>
@@ -8030,7 +7893,7 @@
         <v>38</v>
       </c>
       <c r="E245" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F245" t="s">
         <v>21</v>
@@ -8038,13 +7901,12 @@
       <c r="G245" t="s">
         <v>22</v>
       </c>
-      <c r="I245" s="2"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B246">
         <v>5</v>
@@ -8055,19 +7917,17 @@
       <c r="D246" t="s">
         <v>10</v>
       </c>
-      <c r="E246" t="s">
-        <v>185</v>
+      <c r="E246">
+        <v>5</v>
       </c>
       <c r="F246" t="s">
         <v>21</v>
       </c>
       <c r="I246" s="1"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -8087,13 +7947,12 @@
       <c r="H247" t="s">
         <v>60</v>
       </c>
-      <c r="I247" s="2"/>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B248">
         <v>5</v>
@@ -8104,19 +7963,17 @@
       <c r="D248" t="s">
         <v>10</v>
       </c>
-      <c r="E248" t="s">
-        <v>33</v>
+      <c r="E248">
+        <v>0</v>
       </c>
       <c r="F248" t="s">
         <v>12</v>
       </c>
       <c r="I248" s="1"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B249">
         <v>5</v>
@@ -8133,13 +7990,12 @@
       <c r="F249" t="s">
         <v>21</v>
       </c>
-      <c r="I249" s="2"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B250">
         <v>5</v>
@@ -8150,19 +8006,17 @@
       <c r="D250" t="s">
         <v>10</v>
       </c>
-      <c r="E250" t="s">
-        <v>193</v>
+      <c r="E250">
+        <v>1</v>
       </c>
       <c r="F250" t="s">
         <v>54</v>
       </c>
       <c r="I250" s="1"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -8182,13 +8036,12 @@
       <c r="G251" t="s">
         <v>22</v>
       </c>
-      <c r="I251" s="2"/>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -8199,8 +8052,8 @@
       <c r="D252" t="s">
         <v>10</v>
       </c>
-      <c r="E252" t="s">
-        <v>11</v>
+      <c r="E252">
+        <v>2</v>
       </c>
       <c r="F252" t="s">
         <v>12</v>
@@ -8209,12 +8062,10 @@
         <v>22</v>
       </c>
       <c r="I252" s="1"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B253">
         <v>5</v>
@@ -8226,18 +8077,17 @@
         <v>38</v>
       </c>
       <c r="E253" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F253" t="s">
         <v>21</v>
       </c>
-      <c r="I253" s="2"/>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B254">
         <v>5</v>
@@ -8248,19 +8098,17 @@
       <c r="D254" t="s">
         <v>10</v>
       </c>
-      <c r="E254" t="s">
-        <v>11</v>
+      <c r="E254">
+        <v>2</v>
       </c>
       <c r="F254" t="s">
         <v>21</v>
       </c>
       <c r="I254" s="1"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B255">
         <v>5</v>
@@ -8277,13 +8125,12 @@
       <c r="F255" t="s">
         <v>54</v>
       </c>
-      <c r="I255" s="2"/>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B256">
         <v>5</v>
@@ -8301,12 +8148,10 @@
         <v>21</v>
       </c>
       <c r="I256" s="1"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B257">
         <v>5</v>
@@ -8315,7 +8160,7 @@
         <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E257" t="s">
         <v>33</v>
@@ -8323,13 +8168,12 @@
       <c r="F257" t="s">
         <v>21</v>
       </c>
-      <c r="I257" s="2"/>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B258">
         <v>5</v>
@@ -8340,8 +8184,8 @@
       <c r="D258" t="s">
         <v>10</v>
       </c>
-      <c r="E258" t="s">
-        <v>71</v>
+      <c r="E258">
+        <v>3</v>
       </c>
       <c r="F258" t="s">
         <v>21</v>
@@ -8350,12 +8194,10 @@
         <v>22</v>
       </c>
       <c r="I258" s="1"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B259">
         <v>5</v>
@@ -8366,8 +8208,8 @@
       <c r="D259" t="s">
         <v>10</v>
       </c>
-      <c r="E259" t="s">
-        <v>260</v>
+      <c r="E259">
+        <v>6</v>
       </c>
       <c r="F259" t="s">
         <v>21</v>
@@ -8375,13 +8217,12 @@
       <c r="G259" t="s">
         <v>22</v>
       </c>
-      <c r="I259" s="2"/>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B260">
         <v>5</v>
@@ -8390,7 +8231,7 @@
         <v>32</v>
       </c>
       <c r="D260" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -8399,12 +8240,10 @@
         <v>21</v>
       </c>
       <c r="I260" s="1"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B261">
         <v>5</v>
@@ -8415,19 +8254,18 @@
       <c r="D261" t="s">
         <v>10</v>
       </c>
-      <c r="E261" t="s">
-        <v>11</v>
+      <c r="E261">
+        <v>2</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
       </c>
-      <c r="I261" s="2"/>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B262">
         <v>5</v>
@@ -8448,12 +8286,10 @@
         <v>22</v>
       </c>
       <c r="I262" s="1"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B263">
         <v>5</v>
@@ -8464,8 +8300,8 @@
       <c r="D263" t="s">
         <v>10</v>
       </c>
-      <c r="E263" t="s">
-        <v>25</v>
+      <c r="E263">
+        <v>1</v>
       </c>
       <c r="F263" t="s">
         <v>12</v>
@@ -8473,13 +8309,12 @@
       <c r="G263" t="s">
         <v>22</v>
       </c>
-      <c r="I263" s="2"/>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B264">
         <v>5</v>
@@ -8490,19 +8325,17 @@
       <c r="D264" t="s">
         <v>10</v>
       </c>
-      <c r="E264" t="s">
-        <v>25</v>
+      <c r="E264">
+        <v>1</v>
       </c>
       <c r="F264" t="s">
         <v>21</v>
       </c>
       <c r="I264" s="1"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B265">
         <v>5</v>
@@ -8511,7 +8344,7 @@
         <v>14</v>
       </c>
       <c r="D265" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E265" t="s">
         <v>11</v>
@@ -8519,13 +8352,12 @@
       <c r="F265" t="s">
         <v>21</v>
       </c>
-      <c r="I265" s="2"/>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B266">
         <v>5</v>
@@ -8534,7 +8366,7 @@
         <v>17</v>
       </c>
       <c r="D266" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E266" t="s">
         <v>33</v>
@@ -8543,12 +8375,10 @@
         <v>21</v>
       </c>
       <c r="I266" s="1"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B267">
         <v>5</v>
@@ -8559,8 +8389,8 @@
       <c r="D267" t="s">
         <v>10</v>
       </c>
-      <c r="E267" t="s">
-        <v>25</v>
+      <c r="E267">
+        <v>1</v>
       </c>
       <c r="F267" t="s">
         <v>21</v>
@@ -8568,13 +8398,12 @@
       <c r="H267" t="s">
         <v>60</v>
       </c>
-      <c r="I267" s="2"/>
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B268">
         <v>5</v>
@@ -8583,7 +8412,7 @@
         <v>24</v>
       </c>
       <c r="D268" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E268" t="s">
         <v>33</v>
@@ -8592,12 +8421,10 @@
         <v>21</v>
       </c>
       <c r="I268" s="1"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B269">
         <v>5</v>
@@ -8606,7 +8433,7 @@
         <v>32</v>
       </c>
       <c r="D269" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
@@ -8617,13 +8444,12 @@
       <c r="G269" t="s">
         <v>22</v>
       </c>
-      <c r="I269" s="2"/>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B270">
         <v>5</v>
@@ -8634,19 +8460,17 @@
       <c r="D270" t="s">
         <v>10</v>
       </c>
-      <c r="E270" t="s">
-        <v>25</v>
+      <c r="E270">
+        <v>1</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
       </c>
       <c r="I270" s="1"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B271">
         <v>5</v>
@@ -8666,13 +8490,12 @@
       <c r="G271" t="s">
         <v>22</v>
       </c>
-      <c r="I271" s="2"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B272">
         <v>5</v>
@@ -8683,8 +8506,8 @@
       <c r="D272" t="s">
         <v>10</v>
       </c>
-      <c r="E272" t="s">
-        <v>11</v>
+      <c r="E272">
+        <v>2</v>
       </c>
       <c r="F272" t="s">
         <v>12</v>
@@ -8693,12 +8516,10 @@
         <v>22</v>
       </c>
       <c r="I272" s="1"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B273">
         <v>5</v>
@@ -8715,13 +8536,12 @@
       <c r="F273" t="s">
         <v>35</v>
       </c>
-      <c r="I273" s="2"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B274">
         <v>5</v>
@@ -8742,12 +8562,10 @@
         <v>22</v>
       </c>
       <c r="I274" s="1"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B275">
         <v>5</v>
@@ -8758,8 +8576,8 @@
       <c r="D275" t="s">
         <v>10</v>
       </c>
-      <c r="E275" t="s">
-        <v>18</v>
+      <c r="E275">
+        <v>4</v>
       </c>
       <c r="F275" t="s">
         <v>21</v>
@@ -8767,13 +8585,12 @@
       <c r="G275" t="s">
         <v>22</v>
       </c>
-      <c r="I275" s="2"/>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B276">
         <v>5</v>
@@ -8784,8 +8601,8 @@
       <c r="D276" t="s">
         <v>10</v>
       </c>
-      <c r="E276" t="s">
-        <v>18</v>
+      <c r="E276">
+        <v>4</v>
       </c>
       <c r="F276" t="s">
         <v>21</v>
@@ -8794,12 +8611,10 @@
         <v>22</v>
       </c>
       <c r="I276" s="1"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -8810,8 +8625,8 @@
       <c r="D277" t="s">
         <v>10</v>
       </c>
-      <c r="E277" t="s">
-        <v>263</v>
+      <c r="E277">
+        <v>6</v>
       </c>
       <c r="F277" t="s">
         <v>12</v>
@@ -8819,13 +8634,12 @@
       <c r="G277" t="s">
         <v>22</v>
       </c>
-      <c r="I277" s="2"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -8836,8 +8650,8 @@
       <c r="D278" t="s">
         <v>10</v>
       </c>
-      <c r="E278" t="s">
-        <v>71</v>
+      <c r="E278">
+        <v>3</v>
       </c>
       <c r="F278" t="s">
         <v>12</v>
@@ -8846,12 +8660,10 @@
         <v>22</v>
       </c>
       <c r="I278" s="1"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -8862,19 +8674,18 @@
       <c r="D279" t="s">
         <v>10</v>
       </c>
-      <c r="E279" t="s">
-        <v>185</v>
+      <c r="E279">
+        <v>5</v>
       </c>
       <c r="F279" t="s">
         <v>21</v>
       </c>
-      <c r="I279" s="2"/>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -8885,19 +8696,17 @@
       <c r="D280" t="s">
         <v>10</v>
       </c>
-      <c r="E280" t="s">
-        <v>185</v>
+      <c r="E280">
+        <v>5</v>
       </c>
       <c r="F280" t="s">
         <v>21</v>
       </c>
       <c r="I280" s="1"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -8909,7 +8718,7 @@
         <v>38</v>
       </c>
       <c r="E281" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F281" t="s">
         <v>12</v>
@@ -8917,13 +8726,12 @@
       <c r="G281" t="s">
         <v>22</v>
       </c>
-      <c r="I281" s="2"/>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -8932,7 +8740,7 @@
         <v>20</v>
       </c>
       <c r="D282" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E282" t="s">
         <v>15</v>
@@ -8941,12 +8749,10 @@
         <v>21</v>
       </c>
       <c r="I282" s="1"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -8963,13 +8769,12 @@
       <c r="F283" t="s">
         <v>21</v>
       </c>
-      <c r="I283" s="2"/>
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -8980,19 +8785,17 @@
       <c r="D284" t="s">
         <v>10</v>
       </c>
-      <c r="E284" t="s">
-        <v>11</v>
+      <c r="E284">
+        <v>2</v>
       </c>
       <c r="F284" t="s">
         <v>21</v>
       </c>
       <c r="I284" s="1"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -9012,13 +8815,12 @@
       <c r="H285" t="s">
         <v>60</v>
       </c>
-      <c r="I285" s="2"/>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -9039,12 +8841,10 @@
         <v>22</v>
       </c>
       <c r="I286" s="1"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -9064,13 +8864,12 @@
       <c r="G287" t="s">
         <v>22</v>
       </c>
-      <c r="I287" s="2"/>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -9081,8 +8880,8 @@
       <c r="D288" t="s">
         <v>10</v>
       </c>
-      <c r="E288" t="s">
-        <v>11</v>
+      <c r="E288">
+        <v>2</v>
       </c>
       <c r="F288" t="s">
         <v>21</v>
@@ -9091,12 +8890,10 @@
         <v>22</v>
       </c>
       <c r="I288" s="1"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -9105,7 +8902,7 @@
         <v>14</v>
       </c>
       <c r="D289" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E289" t="s">
         <v>33</v>
@@ -9116,13 +8913,12 @@
       <c r="H289" t="s">
         <v>60</v>
       </c>
-      <c r="I289" s="2"/>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -9133,8 +8929,8 @@
       <c r="D290" t="s">
         <v>10</v>
       </c>
-      <c r="E290" t="s">
-        <v>64</v>
+      <c r="E290">
+        <v>1</v>
       </c>
       <c r="F290" t="s">
         <v>21</v>
@@ -9143,12 +8939,10 @@
         <v>22</v>
       </c>
       <c r="I290" s="1"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -9157,7 +8951,7 @@
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E291" t="s">
         <v>33</v>
@@ -9165,13 +8959,12 @@
       <c r="F291" t="s">
         <v>21</v>
       </c>
-      <c r="I291" s="2"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -9182,19 +8975,17 @@
       <c r="D292" t="s">
         <v>10</v>
       </c>
-      <c r="E292" t="s">
-        <v>11</v>
+      <c r="E292">
+        <v>2</v>
       </c>
       <c r="F292" t="s">
         <v>12</v>
       </c>
       <c r="I292" s="1"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -9205,19 +8996,18 @@
       <c r="D293" t="s">
         <v>10</v>
       </c>
-      <c r="E293" t="s">
-        <v>11</v>
+      <c r="E293">
+        <v>2</v>
       </c>
       <c r="F293" t="s">
         <v>12</v>
       </c>
-      <c r="I293" s="2"/>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -9226,7 +9016,7 @@
         <v>9</v>
       </c>
       <c r="D294" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E294" t="s">
         <v>25</v>
@@ -9235,12 +9025,10 @@
         <v>21</v>
       </c>
       <c r="I294" s="1"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -9257,13 +9045,12 @@
       <c r="F295" t="s">
         <v>21</v>
       </c>
-      <c r="I295" s="2"/>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B296">
         <v>6</v>
@@ -9274,19 +9061,17 @@
       <c r="D296" t="s">
         <v>10</v>
       </c>
-      <c r="E296" t="s">
-        <v>11</v>
+      <c r="E296">
+        <v>2</v>
       </c>
       <c r="F296" t="s">
         <v>35</v>
       </c>
       <c r="I296" s="1"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B297">
         <v>6</v>
@@ -9297,8 +9082,8 @@
       <c r="D297" t="s">
         <v>10</v>
       </c>
-      <c r="E297" t="s">
-        <v>18</v>
+      <c r="E297">
+        <v>4</v>
       </c>
       <c r="F297" t="s">
         <v>21</v>
@@ -9306,13 +9091,12 @@
       <c r="G297" t="s">
         <v>22</v>
       </c>
-      <c r="I297" s="2"/>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B298">
         <v>6</v>
@@ -9323,19 +9107,17 @@
       <c r="D298" t="s">
         <v>10</v>
       </c>
-      <c r="E298" t="s">
-        <v>260</v>
+      <c r="E298">
+        <v>6</v>
       </c>
       <c r="F298" t="s">
         <v>21</v>
       </c>
       <c r="I298" s="1"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B299">
         <v>6</v>
@@ -9346,8 +9128,8 @@
       <c r="D299" t="s">
         <v>10</v>
       </c>
-      <c r="E299" t="s">
-        <v>25</v>
+      <c r="E299">
+        <v>1</v>
       </c>
       <c r="F299" t="s">
         <v>54</v>
@@ -9355,13 +9137,12 @@
       <c r="G299" t="s">
         <v>22</v>
       </c>
-      <c r="I299" s="2"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -9370,7 +9151,7 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E300" t="s">
         <v>11</v>
@@ -9379,12 +9160,10 @@
         <v>12</v>
       </c>
       <c r="I300" s="1"/>
-      <c r="L300" s="2"/>
-      <c r="M300" s="2"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -9395,19 +9174,18 @@
       <c r="D301" t="s">
         <v>10</v>
       </c>
-      <c r="E301" t="s">
-        <v>18</v>
+      <c r="E301">
+        <v>4</v>
       </c>
       <c r="F301" t="s">
         <v>21</v>
       </c>
-      <c r="I301" s="2"/>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -9418,8 +9196,8 @@
       <c r="D302" t="s">
         <v>10</v>
       </c>
-      <c r="E302" t="s">
-        <v>157</v>
+      <c r="E302">
+        <v>2</v>
       </c>
       <c r="F302" t="s">
         <v>21</v>
@@ -9428,12 +9206,10 @@
         <v>22</v>
       </c>
       <c r="I302" s="1"/>
-      <c r="L302" s="2"/>
-      <c r="M302" s="2"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -9444,19 +9220,18 @@
       <c r="D303" t="s">
         <v>10</v>
       </c>
-      <c r="E303" t="s">
-        <v>43</v>
+      <c r="E303">
+        <v>1</v>
       </c>
       <c r="F303" t="s">
         <v>12</v>
       </c>
-      <c r="I303" s="2"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -9467,19 +9242,17 @@
       <c r="D304" t="s">
         <v>10</v>
       </c>
-      <c r="E304" t="s">
-        <v>33</v>
+      <c r="E304">
+        <v>0</v>
       </c>
       <c r="F304" t="s">
         <v>21</v>
       </c>
       <c r="I304" s="1"/>
-      <c r="L304" s="2"/>
-      <c r="M304" s="2"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B305">
         <v>6</v>
@@ -9490,8 +9263,8 @@
       <c r="D305" t="s">
         <v>10</v>
       </c>
-      <c r="E305" t="s">
-        <v>18</v>
+      <c r="E305">
+        <v>4</v>
       </c>
       <c r="F305" t="s">
         <v>21</v>
@@ -9499,13 +9272,12 @@
       <c r="G305" t="s">
         <v>22</v>
       </c>
-      <c r="I305" s="2"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B306">
         <v>6</v>
@@ -9516,8 +9288,8 @@
       <c r="D306" t="s">
         <v>10</v>
       </c>
-      <c r="E306" t="s">
-        <v>18</v>
+      <c r="E306">
+        <v>4</v>
       </c>
       <c r="F306" t="s">
         <v>21</v>
@@ -9526,12 +9298,10 @@
         <v>22</v>
       </c>
       <c r="I306" s="1"/>
-      <c r="L306" s="2"/>
-      <c r="M306" s="2"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B307">
         <v>6</v>
@@ -9548,13 +9318,12 @@
       <c r="F307" t="s">
         <v>21</v>
       </c>
-      <c r="I307" s="2"/>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B308">
         <v>6</v>
@@ -9565,19 +9334,17 @@
       <c r="D308" t="s">
         <v>10</v>
       </c>
-      <c r="E308" t="s">
-        <v>142</v>
+      <c r="E308">
+        <v>1</v>
       </c>
       <c r="F308" t="s">
         <v>54</v>
       </c>
       <c r="I308" s="1"/>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -9589,7 +9356,7 @@
         <v>38</v>
       </c>
       <c r="E309" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F309" t="s">
         <v>12</v>
@@ -9597,13 +9364,12 @@
       <c r="G309" t="s">
         <v>22</v>
       </c>
-      <c r="I309" s="2"/>
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -9614,8 +9380,8 @@
       <c r="D310" t="s">
         <v>10</v>
       </c>
-      <c r="E310" t="s">
-        <v>185</v>
+      <c r="E310">
+        <v>5</v>
       </c>
       <c r="F310" t="s">
         <v>21</v>
@@ -9624,12 +9390,10 @@
         <v>22</v>
       </c>
       <c r="I310" s="1"/>
-      <c r="L310" s="2"/>
-      <c r="M310" s="2"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -9640,19 +9404,18 @@
       <c r="D311" t="s">
         <v>50</v>
       </c>
-      <c r="E311" t="s">
-        <v>25</v>
+      <c r="E311">
+        <v>1</v>
       </c>
       <c r="F311" t="s">
         <v>54</v>
       </c>
-      <c r="I311" s="2"/>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -9670,12 +9433,10 @@
         <v>12</v>
       </c>
       <c r="I312" s="1"/>
-      <c r="L312" s="2"/>
-      <c r="M312" s="2"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -9686,19 +9447,18 @@
       <c r="D313" t="s">
         <v>10</v>
       </c>
-      <c r="E313" t="s">
-        <v>11</v>
+      <c r="E313">
+        <v>2</v>
       </c>
       <c r="F313" t="s">
         <v>12</v>
       </c>
-      <c r="I313" s="2"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -9709,19 +9469,17 @@
       <c r="D314" t="s">
         <v>10</v>
       </c>
-      <c r="E314" t="s">
-        <v>185</v>
+      <c r="E314">
+        <v>5</v>
       </c>
       <c r="F314" t="s">
         <v>12</v>
       </c>
       <c r="I314" s="1"/>
-      <c r="L314" s="2"/>
-      <c r="M314" s="2"/>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -9732,19 +9490,18 @@
       <c r="D315" t="s">
         <v>10</v>
       </c>
-      <c r="E315" t="s">
-        <v>371</v>
+      <c r="E315">
+        <v>3</v>
       </c>
       <c r="F315" t="s">
         <v>21</v>
       </c>
-      <c r="I315" s="2"/>
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -9753,21 +9510,19 @@
         <v>41</v>
       </c>
       <c r="D316" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E316" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F316" t="s">
         <v>12</v>
       </c>
       <c r="I316" s="1"/>
-      <c r="L316" s="2"/>
-      <c r="M316" s="2"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -9779,18 +9534,17 @@
         <v>38</v>
       </c>
       <c r="E317" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F317" t="s">
         <v>21</v>
       </c>
-      <c r="I317" s="2"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -9801,8 +9555,8 @@
       <c r="D318" t="s">
         <v>10</v>
       </c>
-      <c r="E318" t="s">
-        <v>11</v>
+      <c r="E318">
+        <v>2</v>
       </c>
       <c r="F318" t="s">
         <v>21</v>
@@ -9811,12 +9565,10 @@
         <v>22</v>
       </c>
       <c r="I318" s="1"/>
-      <c r="L318" s="2"/>
-      <c r="M318" s="2"/>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B319">
         <v>7</v>
@@ -9827,19 +9579,18 @@
       <c r="D319" t="s">
         <v>10</v>
       </c>
-      <c r="E319" t="s">
-        <v>33</v>
+      <c r="E319">
+        <v>0</v>
       </c>
       <c r="F319" t="s">
         <v>21</v>
       </c>
-      <c r="I319" s="2"/>
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B320">
         <v>7</v>
@@ -9850,19 +9601,17 @@
       <c r="D320" t="s">
         <v>10</v>
       </c>
-      <c r="E320" t="s">
-        <v>203</v>
+      <c r="E320">
+        <v>2</v>
       </c>
       <c r="F320" t="s">
         <v>12</v>
       </c>
       <c r="I320" s="1"/>
-      <c r="L320" s="2"/>
-      <c r="M320" s="2"/>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -9873,22 +9622,18 @@
       <c r="D321" t="s">
         <v>10</v>
       </c>
-      <c r="E321" t="s">
-        <v>379</v>
-      </c>
       <c r="F321" t="s">
         <v>21</v>
       </c>
       <c r="G321" t="s">
         <v>22</v>
       </c>
-      <c r="I321" s="2"/>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B322">
         <v>7</v>
@@ -9906,12 +9651,10 @@
         <v>21</v>
       </c>
       <c r="I322" s="1"/>
-      <c r="L322" s="2"/>
-      <c r="M322" s="2"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -9920,7 +9663,7 @@
         <v>17</v>
       </c>
       <c r="D323" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E323" t="s">
         <v>33</v>
@@ -9928,13 +9671,12 @@
       <c r="F323" t="s">
         <v>21</v>
       </c>
-      <c r="I323" s="2"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -9945,8 +9687,8 @@
       <c r="D324" t="s">
         <v>10</v>
       </c>
-      <c r="E324" t="s">
-        <v>371</v>
+      <c r="E324">
+        <v>6</v>
       </c>
       <c r="F324" t="s">
         <v>21</v>
@@ -9955,12 +9697,10 @@
         <v>22</v>
       </c>
       <c r="I324" s="1"/>
-      <c r="L324" s="2"/>
-      <c r="M324" s="2"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B325">
         <v>7</v>
@@ -9971,19 +9711,18 @@
       <c r="D325" t="s">
         <v>10</v>
       </c>
-      <c r="E325" t="s">
-        <v>33</v>
+      <c r="E325">
+        <v>0</v>
       </c>
       <c r="F325" t="s">
         <v>21</v>
       </c>
-      <c r="I325" s="2"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B326">
         <v>7</v>
@@ -9992,7 +9731,7 @@
         <v>41</v>
       </c>
       <c r="D326" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E326" t="s">
         <v>33</v>
@@ -10001,12 +9740,10 @@
         <v>21</v>
       </c>
       <c r="I326" s="1"/>
-      <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B327">
         <v>7</v>
@@ -10023,13 +9760,12 @@
       <c r="F327" t="s">
         <v>21</v>
       </c>
-      <c r="I327" s="2"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B328">
         <v>7</v>
@@ -10040,19 +9776,17 @@
       <c r="D328" t="s">
         <v>10</v>
       </c>
-      <c r="E328" t="s">
-        <v>43</v>
+      <c r="E328">
+        <v>1</v>
       </c>
       <c r="F328" t="s">
         <v>54</v>
       </c>
       <c r="I328" s="1"/>
-      <c r="L328" s="2"/>
-      <c r="M328" s="2"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B329">
         <v>8</v>
@@ -10063,8 +9797,8 @@
       <c r="D329" t="s">
         <v>10</v>
       </c>
-      <c r="E329" t="s">
-        <v>25</v>
+      <c r="E329">
+        <v>1</v>
       </c>
       <c r="F329" t="s">
         <v>12</v>
@@ -10072,13 +9806,12 @@
       <c r="G329" t="s">
         <v>22</v>
       </c>
-      <c r="I329" s="2"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B330">
         <v>8</v>
@@ -10089,8 +9822,8 @@
       <c r="D330" t="s">
         <v>10</v>
       </c>
-      <c r="E330" t="s">
-        <v>221</v>
+      <c r="E330">
+        <v>1</v>
       </c>
       <c r="F330" t="s">
         <v>21</v>
@@ -10099,12 +9832,10 @@
         <v>22</v>
       </c>
       <c r="I330" s="1"/>
-      <c r="L330" s="2"/>
-      <c r="M330" s="2"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B331">
         <v>8</v>
@@ -10113,7 +9844,7 @@
         <v>29</v>
       </c>
       <c r="D331" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E331" t="s">
         <v>11</v>
@@ -10121,13 +9852,12 @@
       <c r="F331" t="s">
         <v>21</v>
       </c>
-      <c r="I331" s="2"/>
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B332">
         <v>8</v>
@@ -10136,7 +9866,7 @@
         <v>17</v>
       </c>
       <c r="D332" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E332" t="s">
         <v>33</v>
@@ -10145,12 +9875,10 @@
         <v>21</v>
       </c>
       <c r="I332" s="1"/>
-      <c r="L332" s="2"/>
-      <c r="M332" s="2"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B333">
         <v>8</v>
@@ -10159,10 +9887,10 @@
         <v>24</v>
       </c>
       <c r="D333" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E333" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F333" t="s">
         <v>21</v>
@@ -10170,13 +9898,12 @@
       <c r="G333" t="s">
         <v>22</v>
       </c>
-      <c r="I333" s="2"/>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B334">
         <v>8</v>
@@ -10187,19 +9914,17 @@
       <c r="D334" t="s">
         <v>10</v>
       </c>
-      <c r="E334" t="s">
-        <v>11</v>
+      <c r="E334">
+        <v>2</v>
       </c>
       <c r="F334" t="s">
         <v>57</v>
       </c>
       <c r="I334" s="1"/>
-      <c r="L334" s="2"/>
-      <c r="M334" s="2"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B335">
         <v>8</v>
@@ -10210,8 +9935,8 @@
       <c r="D335" t="s">
         <v>10</v>
       </c>
-      <c r="E335" t="s">
-        <v>11</v>
+      <c r="E335">
+        <v>2</v>
       </c>
       <c r="F335" t="s">
         <v>12</v>
@@ -10219,13 +9944,12 @@
       <c r="G335" t="s">
         <v>22</v>
       </c>
-      <c r="I335" s="2"/>
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B336">
         <v>8</v>
@@ -10236,8 +9960,8 @@
       <c r="D336" t="s">
         <v>10</v>
       </c>
-      <c r="E336" t="s">
-        <v>263</v>
+      <c r="E336">
+        <v>6</v>
       </c>
       <c r="F336" t="s">
         <v>21</v>
@@ -10246,12 +9970,10 @@
         <v>22</v>
       </c>
       <c r="I336" s="1"/>
-      <c r="L336" s="2"/>
-      <c r="M336" s="2"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B337">
         <v>8</v>
@@ -10262,19 +9984,18 @@
       <c r="D337" t="s">
         <v>10</v>
       </c>
-      <c r="E337" t="s">
-        <v>185</v>
+      <c r="E337">
+        <v>5</v>
       </c>
       <c r="F337" t="s">
         <v>21</v>
       </c>
-      <c r="I337" s="2"/>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B338">
         <v>8</v>
@@ -10292,12 +10013,10 @@
         <v>54</v>
       </c>
       <c r="I338" s="1"/>
-      <c r="L338" s="2"/>
-      <c r="M338" s="2"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B339">
         <v>8</v>
@@ -10317,13 +10036,12 @@
       <c r="G339" t="s">
         <v>22</v>
       </c>
-      <c r="I339" s="2"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B340">
         <v>8</v>
@@ -10334,8 +10052,8 @@
       <c r="D340" t="s">
         <v>10</v>
       </c>
-      <c r="E340" t="s">
-        <v>185</v>
+      <c r="E340">
+        <v>5</v>
       </c>
       <c r="F340" t="s">
         <v>12</v>
@@ -10344,12 +10062,10 @@
         <v>22</v>
       </c>
       <c r="I340" s="1"/>
-      <c r="L340" s="2"/>
-      <c r="M340" s="2"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -10360,8 +10076,8 @@
       <c r="D341" t="s">
         <v>10</v>
       </c>
-      <c r="E341" t="s">
-        <v>11</v>
+      <c r="E341">
+        <v>2</v>
       </c>
       <c r="F341" t="s">
         <v>12</v>
@@ -10369,13 +10085,12 @@
       <c r="G341" t="s">
         <v>22</v>
       </c>
-      <c r="I341" s="2"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -10386,19 +10101,17 @@
       <c r="D342" t="s">
         <v>10</v>
       </c>
-      <c r="E342" t="s">
-        <v>33</v>
+      <c r="E342">
+        <v>0</v>
       </c>
       <c r="F342" t="s">
         <v>12</v>
       </c>
       <c r="I342" s="1"/>
-      <c r="L342" s="2"/>
-      <c r="M342" s="2"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B343">
         <v>8</v>
@@ -10409,19 +10122,18 @@
       <c r="D343" t="s">
         <v>10</v>
       </c>
-      <c r="E343" t="s">
-        <v>11</v>
+      <c r="E343">
+        <v>2</v>
       </c>
       <c r="F343" t="s">
         <v>54</v>
       </c>
-      <c r="I343" s="2"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B344">
         <v>8</v>
@@ -10432,19 +10144,17 @@
       <c r="D344" t="s">
         <v>10</v>
       </c>
-      <c r="E344" t="s">
-        <v>185</v>
+      <c r="E344">
+        <v>5</v>
       </c>
       <c r="F344" t="s">
         <v>21</v>
       </c>
       <c r="I344" s="1"/>
-      <c r="L344" s="2"/>
-      <c r="M344" s="2"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -10455,19 +10165,18 @@
       <c r="D345" t="s">
         <v>10</v>
       </c>
-      <c r="E345" t="s">
-        <v>237</v>
+      <c r="E345">
+        <v>6</v>
       </c>
       <c r="F345" t="s">
         <v>21</v>
       </c>
-      <c r="I345" s="2"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B346">
         <v>8</v>
@@ -10479,7 +10188,7 @@
         <v>38</v>
       </c>
       <c r="E346" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -10488,12 +10197,10 @@
         <v>22</v>
       </c>
       <c r="I346" s="1"/>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B347">
         <v>9</v>
@@ -10502,7 +10209,7 @@
         <v>17</v>
       </c>
       <c r="D347" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E347" t="s">
         <v>43</v>
@@ -10510,13 +10217,12 @@
       <c r="F347" t="s">
         <v>21</v>
       </c>
-      <c r="I347" s="2"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B348">
         <v>9</v>
@@ -10534,12 +10240,10 @@
         <v>21</v>
       </c>
       <c r="I348" s="1"/>
-      <c r="L348" s="2"/>
-      <c r="M348" s="2"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B349">
         <v>9</v>
@@ -10550,8 +10254,8 @@
       <c r="D349" t="s">
         <v>10</v>
       </c>
-      <c r="E349" t="s">
-        <v>11</v>
+      <c r="E349">
+        <v>2</v>
       </c>
       <c r="F349" t="s">
         <v>21</v>
@@ -10559,13 +10263,12 @@
       <c r="G349" t="s">
         <v>22</v>
       </c>
-      <c r="I349" s="2"/>
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B350">
         <v>9</v>
@@ -10583,12 +10286,10 @@
         <v>21</v>
       </c>
       <c r="I350" s="1"/>
-      <c r="L350" s="2"/>
-      <c r="M350" s="2"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B351">
         <v>9</v>
@@ -10599,19 +10300,18 @@
       <c r="D351" t="s">
         <v>10</v>
       </c>
-      <c r="E351" t="s">
-        <v>11</v>
+      <c r="E351">
+        <v>2</v>
       </c>
       <c r="F351" t="s">
         <v>12</v>
       </c>
-      <c r="I351" s="2"/>
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B352">
         <v>9</v>
@@ -10622,19 +10322,17 @@
       <c r="D352" t="s">
         <v>10</v>
       </c>
-      <c r="E352" t="s">
-        <v>200</v>
+      <c r="E352">
+        <v>6</v>
       </c>
       <c r="F352" t="s">
         <v>12</v>
       </c>
       <c r="I352" s="1"/>
-      <c r="L352" s="2"/>
-      <c r="M352" s="2"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B353">
         <v>9</v>
@@ -10645,19 +10343,18 @@
       <c r="D353" t="s">
         <v>10</v>
       </c>
-      <c r="E353" t="s">
-        <v>33</v>
+      <c r="E353">
+        <v>0</v>
       </c>
       <c r="F353" t="s">
         <v>12</v>
       </c>
-      <c r="I353" s="2"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B354">
         <v>9</v>
@@ -10668,19 +10365,17 @@
       <c r="D354" t="s">
         <v>10</v>
       </c>
-      <c r="E354" t="s">
-        <v>11</v>
+      <c r="E354">
+        <v>2</v>
       </c>
       <c r="F354" t="s">
         <v>54</v>
       </c>
       <c r="I354" s="1"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B355">
         <v>9</v>
@@ -10691,19 +10386,18 @@
       <c r="D355" t="s">
         <v>10</v>
       </c>
-      <c r="E355" t="s">
-        <v>11</v>
+      <c r="E355">
+        <v>2</v>
       </c>
       <c r="F355" t="s">
         <v>12</v>
       </c>
-      <c r="I355" s="2"/>
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B356">
         <v>9</v>
@@ -10724,12 +10418,10 @@
         <v>22</v>
       </c>
       <c r="I356" s="1"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2"/>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B357">
         <v>9</v>
@@ -10740,8 +10432,8 @@
       <c r="D357" t="s">
         <v>10</v>
       </c>
-      <c r="E357" t="s">
-        <v>373</v>
+      <c r="E357">
+        <v>4</v>
       </c>
       <c r="F357" t="s">
         <v>12</v>
@@ -10749,13 +10441,12 @@
       <c r="G357" t="s">
         <v>22</v>
       </c>
-      <c r="I357" s="2"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B358">
         <v>9</v>
@@ -10773,12 +10464,10 @@
         <v>54</v>
       </c>
       <c r="I358" s="1"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B359">
         <v>9</v>
@@ -10789,8 +10478,8 @@
       <c r="D359" t="s">
         <v>10</v>
       </c>
-      <c r="E359" t="s">
-        <v>25</v>
+      <c r="E359">
+        <v>1</v>
       </c>
       <c r="F359" t="s">
         <v>21</v>
@@ -10798,13 +10487,12 @@
       <c r="G359" t="s">
         <v>22</v>
       </c>
-      <c r="I359" s="2"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B360">
         <v>9</v>
@@ -10813,7 +10501,7 @@
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E360" t="s">
         <v>33</v>
@@ -10822,12 +10510,10 @@
         <v>21</v>
       </c>
       <c r="I360" s="1"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2"/>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B361">
         <v>9</v>
@@ -10838,8 +10524,8 @@
       <c r="D361" t="s">
         <v>10</v>
       </c>
-      <c r="E361" t="s">
-        <v>18</v>
+      <c r="E361">
+        <v>4</v>
       </c>
       <c r="F361" t="s">
         <v>12</v>
@@ -10847,13 +10533,12 @@
       <c r="G361" t="s">
         <v>22</v>
       </c>
-      <c r="I361" s="2"/>
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B362">
         <v>9</v>
@@ -10870,69 +10555,39 @@
       <c r="F362" t="s">
         <v>54</v>
       </c>
-      <c r="I362" s="3"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2"/>
+      <c r="I362" s="2"/>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
-    </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L366" s="2"/>
-      <c r="M366" s="2"/>
-    </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L368" s="2"/>
-      <c r="M368" s="2"/>
-    </row>
     <row r="369" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
     </row>
-    <row r="370" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L370" s="2"/>
-      <c r="M370" s="2"/>
-    </row>
     <row r="371" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
     </row>
-    <row r="372" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L372" s="2"/>
-      <c r="M372" s="2"/>
-    </row>
     <row r="373" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
     </row>
-    <row r="374" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L374" s="2"/>
-      <c r="M374" s="2"/>
-    </row>
     <row r="375" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
     </row>
-    <row r="376" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L376" s="2"/>
-      <c r="M376" s="2"/>
-    </row>
     <row r="377" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L377" s="3"/>
-      <c r="M377" s="3"/>
+      <c r="L377" s="2"/>
+      <c r="M377" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
